--- a/icd_files/20585.xlsx
+++ b/icd_files/20585.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CC999-56C7-4B65-A82F-ADF5853D7965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C32401-DCF2-4215-AE20-302F21DB3CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="642">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1425,33 +1425,153 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
-    <t>Magnesium Sulfate</t>
-  </si>
-  <si>
     <t>Lorazepam</t>
   </si>
   <si>
+    <t>NS (Glass Bottle)</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Suspension</t>
+  </si>
+  <si>
+    <t>Humulin-R Insulin</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Fosphenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Unasyn</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Thiamine HCl</t>
+  </si>
+  <si>
+    <t>Midazolam HCl</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>100 ml</t>
   </si>
   <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>3 VIAL</t>
+  </si>
+  <si>
+    <t>350 ml</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>22:00</t>
   </si>
   <si>
+    <t>3 ml</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
-    <t>3 ml</t>
-  </si>
-  <si>
     <t>1-2 ml</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -1467,24 +1587,54 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
     <t>250 ml</t>
   </si>
   <si>
+    <t>80 PKT</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
+    <t>4 ml</t>
+  </si>
+  <si>
     <t>100 BTL</t>
   </si>
   <si>
-    <t>4 ml</t>
+    <t>20 CAP</t>
+  </si>
+  <si>
+    <t>75 TAB</t>
   </si>
   <si>
     <t>01:00</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
     <t>2 ml</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>150 ml</t>
+  </si>
+  <si>
+    <t>300 VIAL</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
@@ -1494,13 +1644,37 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>400 VIAL</t>
+  </si>
+  <si>
+    <t>60 CAP</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
+    <t>30 SYR</t>
+  </si>
+  <si>
     <t>11:30</t>
   </si>
   <si>
+    <t>40 ml</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
+    <t>1-5 SYR</t>
+  </si>
+  <si>
     <t>19:30</t>
+  </si>
+  <si>
+    <t>250 BTL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -6377,7 +6551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000000-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8971,7 +9145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000001-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11565,7 +11739,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000002-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14222,7 +14396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000003-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16867,7 +17041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000004-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18576,7 +18750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000005-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19968,7 +20142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000006-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21360,7 +21534,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000007-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22791,7 +22965,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000008-5DE7-4853-8B8F-C7C7BD0ACA5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23234,7 +23408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B24B6-4323-4DBD-9113-7D20808F9EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A96641-2D0A-4E99-9B80-39F1BAD82103}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -23259,7 +23433,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -23272,7 +23446,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -23285,7 +23459,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -23298,7 +23472,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -23311,27 +23485,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -23359,7 +23533,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -23387,11 +23561,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -23414,7 +23588,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23451,7 +23625,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -23474,14 +23648,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -23504,14 +23678,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -23534,14 +23708,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -23564,14 +23738,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -23594,16 +23768,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -23626,14 +23800,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -23656,10 +23830,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -23667,7 +23841,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -23679,7 +23853,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -23702,7 +23876,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -23718,11 +23892,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -23745,7 +23919,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -23763,7 +23937,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -23786,7 +23960,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -23805,7 +23979,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -23828,10 +24002,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -23849,7 +24023,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -23872,52 +24046,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -23940,53 +24114,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -24009,43 +24183,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -24053,7 +24227,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -24076,43 +24250,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -24120,7 +24294,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -24143,43 +24317,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -24187,7 +24361,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -24210,43 +24384,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -24254,7 +24428,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -24277,43 +24451,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -24321,7 +24495,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -24344,43 +24518,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -24388,7 +24562,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -24411,43 +24585,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -24455,7 +24629,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -24478,43 +24652,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -24522,7 +24696,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -24545,43 +24719,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -24589,7 +24763,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -24612,43 +24786,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -24656,7 +24830,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -24679,43 +24853,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -24723,7 +24897,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -24746,7 +24920,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -24759,10 +24933,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -24770,7 +24944,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -24793,14 +24967,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -24815,7 +24989,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -24838,7 +25012,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -24858,7 +25032,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -24881,7 +25055,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -24901,7 +25075,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -24924,7 +25098,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -24942,11 +25116,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -24969,14 +25143,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -24999,14 +25173,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -25029,14 +25203,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -25059,14 +25233,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -25089,14 +25263,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -25119,14 +25293,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -25149,10 +25323,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -25169,7 +25343,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -25192,7 +25366,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -25210,7 +25384,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -25233,7 +25407,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -25251,7 +25425,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -25274,14 +25448,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -25304,14 +25478,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -25334,24 +25508,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -25374,7 +25548,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -25383,7 +25557,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -25406,14 +25580,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -25421,7 +25595,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -25444,7 +25618,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -25453,7 +25627,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -25476,14 +25650,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -25491,7 +25665,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -25514,7 +25688,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -25523,7 +25697,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -25546,24 +25720,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -25586,7 +25760,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -25595,7 +25769,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -25618,22 +25792,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -25641,7 +25815,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -25664,7 +25838,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -25677,7 +25851,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -25700,32 +25874,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -25748,7 +25922,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -25757,7 +25931,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -25780,14 +25954,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -25795,7 +25969,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -25818,14 +25992,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -25848,12 +26022,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -25881,7 +26055,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -25908,13 +26082,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -25942,7 +26116,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -26054,7 +26228,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -26082,7 +26256,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -26110,7 +26284,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -36447,13 +36621,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:DI38"/>
+  <dimension ref="A30:DM64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>443</v>
       </c>
@@ -36461,7 +36635,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:117" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>445</v>
       </c>
@@ -36469,7 +36643,7 @@
         <v>445</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>446</v>
@@ -36490,7 +36664,7 @@
         <v>446</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>447</v>
@@ -36508,7 +36682,7 @@
         <v>447</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>448</v>
@@ -36526,7 +36700,7 @@
         <v>448</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>449</v>
@@ -36547,7 +36721,7 @@
         <v>449</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>450</v>
@@ -36568,7 +36742,7 @@
         <v>450</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>451</v>
@@ -36586,7 +36760,7 @@
         <v>451</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>452</v>
@@ -36604,10 +36778,10 @@
         <v>452</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>453</v>
@@ -36622,10 +36796,10 @@
         <v>453</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BE31" s="1" t="s">
         <v>454</v>
@@ -36640,13 +36814,13 @@
         <v>454</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BL31" s="1" t="s">
         <v>455</v>
@@ -36664,10 +36838,10 @@
         <v>455</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>456</v>
@@ -36682,10 +36856,10 @@
         <v>456</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BY31" s="1" t="s">
         <v>457</v>
@@ -36703,10 +36877,10 @@
         <v>457</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CE31" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CF31" s="1" t="s">
         <v>458</v>
@@ -36721,10 +36895,10 @@
         <v>458</v>
       </c>
       <c r="CJ31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="CK31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="CL31" s="1" t="s">
         <v>459</v>
@@ -36739,10 +36913,10 @@
         <v>459</v>
       </c>
       <c r="CP31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="CQ31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="CR31" s="1" t="s">
         <v>460</v>
@@ -36757,10 +36931,10 @@
         <v>460</v>
       </c>
       <c r="CV31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="CW31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="CX31" s="1" t="s">
         <v>461</v>
@@ -36775,10 +36949,10 @@
         <v>461</v>
       </c>
       <c r="DB31" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="DC31" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="DD31" s="1" t="s">
         <v>462</v>
@@ -36790,373 +36964,394 @@
         <v>462</v>
       </c>
       <c r="DG31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="DM31" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="E32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="F32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="G32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="H32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="I32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="J32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="K32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="L32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="N32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="O32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="P32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="Q32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="R32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="S32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="T32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="U32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="V32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="W32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="X32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="Y32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="Z32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AA32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AB32" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="AC32" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="AD32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AE32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AF32" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="AG32" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="AH32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AI32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AJ32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="AK32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AL32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AM32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="AN32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AO32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AP32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="AQ32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AR32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AS32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="AT32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="AU32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="AV32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="AW32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="AX32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="AY32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="AZ32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="BA32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="BB32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="BC32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BD32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BE32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BF32" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="BG32" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="BH32" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="BI32" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="BJ32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BK32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BL32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BM32" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="BN32" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="BO32" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="BP32" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="BQ32" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="BR32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BS32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BT32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="BU32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="BV32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="BW32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BX32" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="BY32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="BZ32" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="CA32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CB32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CC32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CD32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CE32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CF32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CG32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CH32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CI32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CJ32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CK32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CL32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CM32" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="CN32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CO32" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="CP32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CQ32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CR32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CS32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CT32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CU32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CV32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CW32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CX32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CY32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CZ32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="DA32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="DB32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="DC32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="DD32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="DE32" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="DF32" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="DG32" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="DH32" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="DI32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>496</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>517</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
       <c r="D35">
         <v>7</v>
       </c>
@@ -37167,10 +37362,10 @@
         <v>7</v>
       </c>
       <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
         <v>3</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
       </c>
       <c r="I35">
         <v>7</v>
@@ -37185,7 +37380,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>6</v>
@@ -37218,16 +37413,16 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>9</v>
       </c>
       <c r="Z35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
         <v>6</v>
-      </c>
-      <c r="AA35">
-        <v>7</v>
       </c>
       <c r="AB35">
         <v>7</v>
@@ -37235,20 +37430,20 @@
       <c r="AC35">
         <v>7</v>
       </c>
-      <c r="AF35">
-        <v>8</v>
+      <c r="AD35">
+        <v>7</v>
       </c>
       <c r="AG35">
         <v>8</v>
       </c>
       <c r="AH35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI35">
         <v>10</v>
       </c>
       <c r="AJ35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK35">
         <v>9</v>
@@ -37260,7 +37455,7 @@
         <v>9</v>
       </c>
       <c r="AN35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO35">
         <v>6</v>
@@ -37293,10 +37488,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -37305,49 +37500,49 @@
         <v>7</v>
       </c>
       <c r="BC35">
+        <v>7</v>
+      </c>
+      <c r="BD35">
+        <v>7</v>
+      </c>
+      <c r="BE35">
         <v>10</v>
       </c>
-      <c r="BD35">
+      <c r="BF35">
         <v>10</v>
       </c>
-      <c r="BE35">
+      <c r="BG35">
+        <v>10</v>
+      </c>
+      <c r="BH35">
         <v>9</v>
       </c>
-      <c r="BF35">
+      <c r="BI35">
         <v>9</v>
-      </c>
-      <c r="BG35">
-        <v>8</v>
-      </c>
-      <c r="BH35">
-        <v>6</v>
-      </c>
-      <c r="BI35">
-        <v>8</v>
       </c>
       <c r="BJ35">
         <v>8</v>
       </c>
       <c r="BK35">
+        <v>6</v>
+      </c>
+      <c r="BL35">
+        <v>8</v>
+      </c>
+      <c r="BM35">
         <v>9</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>6</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>8</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>9</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>7</v>
-      </c>
-      <c r="BP35">
-        <v>8</v>
-      </c>
-      <c r="BQ35">
-        <v>8</v>
       </c>
       <c r="BR35">
         <v>8</v>
@@ -37362,40 +37557,40 @@
         <v>8</v>
       </c>
       <c r="BV35">
+        <v>8</v>
+      </c>
+      <c r="BW35">
+        <v>8</v>
+      </c>
+      <c r="BX35">
         <v>7</v>
-      </c>
-      <c r="BW35">
-        <v>4</v>
-      </c>
-      <c r="BX35">
-        <v>4</v>
       </c>
       <c r="BY35">
         <v>4</v>
       </c>
       <c r="BZ35">
+        <v>4</v>
+      </c>
+      <c r="CA35">
+        <v>4</v>
+      </c>
+      <c r="CB35">
         <v>6</v>
-      </c>
-      <c r="CA35">
-        <v>7</v>
-      </c>
-      <c r="CB35">
-        <v>7</v>
       </c>
       <c r="CC35">
         <v>7</v>
       </c>
       <c r="CD35">
+        <v>7</v>
+      </c>
+      <c r="CE35">
+        <v>7</v>
+      </c>
+      <c r="CF35">
         <v>8</v>
       </c>
-      <c r="CE35">
+      <c r="CG35">
         <v>8</v>
-      </c>
-      <c r="CF35">
-        <v>7</v>
-      </c>
-      <c r="CG35">
-        <v>7</v>
       </c>
       <c r="CH35">
         <v>7</v>
@@ -37449,16 +37644,16 @@
         <v>7</v>
       </c>
       <c r="CY35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ35">
         <v>7</v>
       </c>
       <c r="DA35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DB35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="DC35">
         <v>9</v>
@@ -37470,136 +37665,491 @@
         <v>9</v>
       </c>
       <c r="DF35">
+        <v>9</v>
+      </c>
+      <c r="DG35">
+        <v>9</v>
+      </c>
+      <c r="DH35">
+        <v>9</v>
+      </c>
+      <c r="DI35">
         <v>7</v>
       </c>
-      <c r="DG35">
+      <c r="DK35">
         <v>6</v>
       </c>
-      <c r="DH35">
+      <c r="DL35">
         <v>6</v>
       </c>
-      <c r="DI35">
+      <c r="DM35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B36" t="s">
-        <v>471</v>
-      </c>
-      <c r="D36" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>483</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>483</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>481</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>483</v>
-      </c>
-      <c r="BW36" t="s">
-        <v>481</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>473</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>500</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>527</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>527</v>
+      </c>
+      <c r="DJ36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D37" t="s">
-        <v>474</v>
-      </c>
-      <c r="E37" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>484</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>484</v>
-      </c>
-      <c r="CP37" t="s">
-        <v>474</v>
-      </c>
-      <c r="DB37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="DD37" t="s">
+        <v>527</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>548</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>509</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>509</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>509</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F39" t="s">
+        <v>510</v>
+      </c>
+      <c r="R39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>522</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>522</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>510</v>
+      </c>
+      <c r="CX39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" t="s">
+        <v>511</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>509</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>533</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>533</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>527</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>534</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>536</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>540</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E43" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" t="s">
+        <v>512</v>
+      </c>
+      <c r="R43" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BY43" t="s">
+        <v>541</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>545</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E38" t="s">
-        <v>475</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>474</v>
-      </c>
-      <c r="BC38" t="s">
+      <c r="CF44" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E46" t="s">
+        <v>497</v>
+      </c>
+      <c r="F46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>535</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>535</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>547</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R48" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="BI38" t="s">
-        <v>484</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>484</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>474</v>
+      <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" t="s">
+        <v>503</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" t="s">
+        <v>505</v>
+      </c>
+      <c r="C59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" t="s">
+        <v>506</v>
+      </c>
+      <c r="C60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" t="s">
+        <v>500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E62" t="s">
+        <v>514</v>
+      </c>
+      <c r="F62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E63" t="s">
+        <v>515</v>
+      </c>
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L64" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/20585.xlsx
+++ b/icd_files/20585.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CC999-56C7-4B65-A82F-ADF5853D7965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE4F11-AB30-419C-8EE8-AD33C9BE018A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="642">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1425,33 +1425,153 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
-    <t>Magnesium Sulfate</t>
-  </si>
-  <si>
     <t>Lorazepam</t>
   </si>
   <si>
+    <t>NS (Glass Bottle)</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Suspension</t>
+  </si>
+  <si>
+    <t>Humulin-R Insulin</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Fosphenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Unasyn</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Thiamine HCl</t>
+  </si>
+  <si>
+    <t>Midazolam HCl</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>100 ml</t>
   </si>
   <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>3 VIAL</t>
+  </si>
+  <si>
+    <t>350 ml</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>22:00</t>
   </si>
   <si>
+    <t>3 ml</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
-    <t>3 ml</t>
-  </si>
-  <si>
     <t>1-2 ml</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -1467,24 +1587,54 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
     <t>250 ml</t>
   </si>
   <si>
+    <t>80 PKT</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
+    <t>4 ml</t>
+  </si>
+  <si>
     <t>100 BTL</t>
   </si>
   <si>
-    <t>4 ml</t>
+    <t>20 CAP</t>
+  </si>
+  <si>
+    <t>75 TAB</t>
   </si>
   <si>
     <t>01:00</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
     <t>2 ml</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>150 ml</t>
+  </si>
+  <si>
+    <t>300 VIAL</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
@@ -1494,13 +1644,37 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>400 VIAL</t>
+  </si>
+  <si>
+    <t>60 CAP</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
+    <t>30 SYR</t>
+  </si>
+  <si>
     <t>11:30</t>
   </si>
   <si>
+    <t>40 ml</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
+    <t>1-5 SYR</t>
+  </si>
+  <si>
     <t>19:30</t>
+  </si>
+  <si>
+    <t>250 BTL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -6377,7 +6551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000000-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8971,7 +9145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000001-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11565,7 +11739,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000002-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14222,7 +14396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000003-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16867,7 +17041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000004-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18576,7 +18750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000005-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19968,7 +20142,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000006-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21360,7 +21534,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000007-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22791,7 +22965,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-ABF0-4BDA-99C2-D9005BDF3666}"/>
+              <c16:uniqueId val="{00000008-282F-4D90-B103-2124088DB91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23234,7 +23408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155B24B6-4323-4DBD-9113-7D20808F9EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3FF2-A163-48CD-BF5F-B5DC3AFBF189}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -23259,7 +23433,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -23272,7 +23446,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -23285,7 +23459,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -23298,7 +23472,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -23311,27 +23485,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -23359,7 +23533,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -23387,11 +23561,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -23414,7 +23588,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23451,7 +23625,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -23474,14 +23648,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -23504,14 +23678,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -23534,14 +23708,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -23564,14 +23738,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -23594,16 +23768,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -23626,14 +23800,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -23656,10 +23830,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -23667,7 +23841,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -23679,7 +23853,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -23702,7 +23876,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -23718,11 +23892,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -23745,7 +23919,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -23763,7 +23937,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -23786,7 +23960,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -23805,7 +23979,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -23828,10 +24002,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -23849,7 +24023,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -23872,52 +24046,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -23940,53 +24114,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -24009,43 +24183,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -24053,7 +24227,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -24076,43 +24250,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -24120,7 +24294,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -24143,43 +24317,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -24187,7 +24361,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -24210,43 +24384,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -24254,7 +24428,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -24277,43 +24451,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -24321,7 +24495,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -24344,43 +24518,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -24388,7 +24562,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -24411,43 +24585,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -24455,7 +24629,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -24478,43 +24652,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -24522,7 +24696,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -24545,43 +24719,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -24589,7 +24763,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -24612,43 +24786,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -24656,7 +24830,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -24679,43 +24853,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -24723,7 +24897,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -24746,7 +24920,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -24759,10 +24933,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -24770,7 +24944,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -24793,14 +24967,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -24815,7 +24989,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -24838,7 +25012,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -24858,7 +25032,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -24881,7 +25055,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -24901,7 +25075,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -24924,7 +25098,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -24942,11 +25116,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -24969,14 +25143,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -24999,14 +25173,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -25029,14 +25203,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -25059,14 +25233,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -25089,14 +25263,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -25119,14 +25293,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -25149,10 +25323,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -25169,7 +25343,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -25192,7 +25366,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -25210,7 +25384,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -25233,7 +25407,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -25251,7 +25425,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -25274,14 +25448,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -25304,14 +25478,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -25334,24 +25508,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -25374,7 +25548,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -25383,7 +25557,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -25406,14 +25580,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -25421,7 +25595,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -25444,7 +25618,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -25453,7 +25627,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -25476,14 +25650,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -25491,7 +25665,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -25514,7 +25688,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -25523,7 +25697,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -25546,24 +25720,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -25586,7 +25760,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -25595,7 +25769,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -25618,22 +25792,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -25641,7 +25815,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -25664,7 +25838,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -25677,7 +25851,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -25700,32 +25874,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -25748,7 +25922,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -25757,7 +25931,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -25780,14 +25954,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -25795,7 +25969,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -25818,14 +25992,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -25848,12 +26022,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -25881,7 +26055,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -25908,13 +26082,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -25942,7 +26116,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -26054,7 +26228,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -26082,7 +26256,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -26110,7 +26284,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -36447,13 +36621,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:DI38"/>
+  <dimension ref="A30:DM64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>443</v>
       </c>
@@ -36461,7 +36635,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:117" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>445</v>
       </c>
@@ -36469,7 +36643,7 @@
         <v>445</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>446</v>
@@ -36490,7 +36664,7 @@
         <v>446</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>447</v>
@@ -36508,7 +36682,7 @@
         <v>447</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>448</v>
@@ -36526,7 +36700,7 @@
         <v>448</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>449</v>
@@ -36547,7 +36721,7 @@
         <v>449</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>450</v>
@@ -36568,7 +36742,7 @@
         <v>450</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>451</v>
@@ -36586,7 +36760,7 @@
         <v>451</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>452</v>
@@ -36604,10 +36778,10 @@
         <v>452</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>453</v>
@@ -36622,10 +36796,10 @@
         <v>453</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BE31" s="1" t="s">
         <v>454</v>
@@ -36640,13 +36814,13 @@
         <v>454</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BL31" s="1" t="s">
         <v>455</v>
@@ -36664,10 +36838,10 @@
         <v>455</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>456</v>
@@ -36682,10 +36856,10 @@
         <v>456</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BY31" s="1" t="s">
         <v>457</v>
@@ -36703,10 +36877,10 @@
         <v>457</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CE31" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CF31" s="1" t="s">
         <v>458</v>
@@ -36721,10 +36895,10 @@
         <v>458</v>
       </c>
       <c r="CJ31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="CK31" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="CL31" s="1" t="s">
         <v>459</v>
@@ -36739,10 +36913,10 @@
         <v>459</v>
       </c>
       <c r="CP31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="CQ31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="CR31" s="1" t="s">
         <v>460</v>
@@ -36757,10 +36931,10 @@
         <v>460</v>
       </c>
       <c r="CV31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="CW31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="CX31" s="1" t="s">
         <v>461</v>
@@ -36775,10 +36949,10 @@
         <v>461</v>
       </c>
       <c r="DB31" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="DC31" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="DD31" s="1" t="s">
         <v>462</v>
@@ -36790,373 +36964,394 @@
         <v>462</v>
       </c>
       <c r="DG31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="DM31" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="E32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="F32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="G32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="H32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="I32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="J32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="K32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="L32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="N32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="O32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="P32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="Q32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="R32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="S32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="T32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="U32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="V32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="W32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="X32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="Y32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="Z32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AA32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AB32" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="AC32" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="AD32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AE32" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="AF32" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="AG32" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="AH32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AI32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AJ32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="AK32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AL32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AM32" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="AN32" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="AO32" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="AP32" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="AQ32" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AR32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AS32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="AT32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="AU32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="AV32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="AW32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="AX32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="AY32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="AZ32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="BA32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="BB32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="BC32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BD32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BE32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BF32" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="BG32" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="BH32" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="BI32" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="BJ32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BK32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BL32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BM32" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="BN32" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="BO32" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="BP32" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="BQ32" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="BR32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="BS32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="BT32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="BU32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="BV32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="BW32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="BX32" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="BY32" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="BZ32" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="CA32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CB32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CC32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CD32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CE32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CF32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CG32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CH32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CI32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CJ32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CK32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CL32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CM32" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="CN32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CO32" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="CP32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CQ32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CR32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CS32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CT32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="CU32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="CV32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="CW32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="CX32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="CY32" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="CZ32" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="DA32" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="DB32" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="DC32" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="DD32" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="DE32" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="DF32" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="DG32" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="DH32" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="DI32" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>496</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>517</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
       <c r="D35">
         <v>7</v>
       </c>
@@ -37167,10 +37362,10 @@
         <v>7</v>
       </c>
       <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
         <v>3</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
       </c>
       <c r="I35">
         <v>7</v>
@@ -37185,7 +37380,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>6</v>
@@ -37218,16 +37413,16 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>9</v>
       </c>
       <c r="Z35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
         <v>6</v>
-      </c>
-      <c r="AA35">
-        <v>7</v>
       </c>
       <c r="AB35">
         <v>7</v>
@@ -37235,20 +37430,20 @@
       <c r="AC35">
         <v>7</v>
       </c>
-      <c r="AF35">
-        <v>8</v>
+      <c r="AD35">
+        <v>7</v>
       </c>
       <c r="AG35">
         <v>8</v>
       </c>
       <c r="AH35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI35">
         <v>10</v>
       </c>
       <c r="AJ35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK35">
         <v>9</v>
@@ -37260,7 +37455,7 @@
         <v>9</v>
       </c>
       <c r="AN35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO35">
         <v>6</v>
@@ -37293,10 +37488,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -37305,49 +37500,49 @@
         <v>7</v>
       </c>
       <c r="BC35">
+        <v>7</v>
+      </c>
+      <c r="BD35">
+        <v>7</v>
+      </c>
+      <c r="BE35">
         <v>10</v>
       </c>
-      <c r="BD35">
+      <c r="BF35">
         <v>10</v>
       </c>
-      <c r="BE35">
+      <c r="BG35">
+        <v>10</v>
+      </c>
+      <c r="BH35">
         <v>9</v>
       </c>
-      <c r="BF35">
+      <c r="BI35">
         <v>9</v>
-      </c>
-      <c r="BG35">
-        <v>8</v>
-      </c>
-      <c r="BH35">
-        <v>6</v>
-      </c>
-      <c r="BI35">
-        <v>8</v>
       </c>
       <c r="BJ35">
         <v>8</v>
       </c>
       <c r="BK35">
+        <v>6</v>
+      </c>
+      <c r="BL35">
+        <v>8</v>
+      </c>
+      <c r="BM35">
         <v>9</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>6</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>8</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>9</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>7</v>
-      </c>
-      <c r="BP35">
-        <v>8</v>
-      </c>
-      <c r="BQ35">
-        <v>8</v>
       </c>
       <c r="BR35">
         <v>8</v>
@@ -37362,40 +37557,40 @@
         <v>8</v>
       </c>
       <c r="BV35">
+        <v>8</v>
+      </c>
+      <c r="BW35">
+        <v>8</v>
+      </c>
+      <c r="BX35">
         <v>7</v>
-      </c>
-      <c r="BW35">
-        <v>4</v>
-      </c>
-      <c r="BX35">
-        <v>4</v>
       </c>
       <c r="BY35">
         <v>4</v>
       </c>
       <c r="BZ35">
+        <v>4</v>
+      </c>
+      <c r="CA35">
+        <v>4</v>
+      </c>
+      <c r="CB35">
         <v>6</v>
-      </c>
-      <c r="CA35">
-        <v>7</v>
-      </c>
-      <c r="CB35">
-        <v>7</v>
       </c>
       <c r="CC35">
         <v>7</v>
       </c>
       <c r="CD35">
+        <v>7</v>
+      </c>
+      <c r="CE35">
+        <v>7</v>
+      </c>
+      <c r="CF35">
         <v>8</v>
       </c>
-      <c r="CE35">
+      <c r="CG35">
         <v>8</v>
-      </c>
-      <c r="CF35">
-        <v>7</v>
-      </c>
-      <c r="CG35">
-        <v>7</v>
       </c>
       <c r="CH35">
         <v>7</v>
@@ -37449,16 +37644,16 @@
         <v>7</v>
       </c>
       <c r="CY35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ35">
         <v>7</v>
       </c>
       <c r="DA35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DB35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="DC35">
         <v>9</v>
@@ -37470,136 +37665,491 @@
         <v>9</v>
       </c>
       <c r="DF35">
+        <v>9</v>
+      </c>
+      <c r="DG35">
+        <v>9</v>
+      </c>
+      <c r="DH35">
+        <v>9</v>
+      </c>
+      <c r="DI35">
         <v>7</v>
       </c>
-      <c r="DG35">
+      <c r="DK35">
         <v>6</v>
       </c>
-      <c r="DH35">
+      <c r="DL35">
         <v>6</v>
       </c>
-      <c r="DI35">
+      <c r="DM35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B36" t="s">
-        <v>471</v>
-      </c>
-      <c r="D36" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>483</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>483</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>481</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>483</v>
-      </c>
-      <c r="BW36" t="s">
-        <v>481</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>473</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>500</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>527</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>527</v>
+      </c>
+      <c r="DJ36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D37" t="s">
-        <v>474</v>
-      </c>
-      <c r="E37" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>474</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>484</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>484</v>
-      </c>
-      <c r="CP37" t="s">
-        <v>474</v>
-      </c>
-      <c r="DB37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="DD37" t="s">
+        <v>527</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>548</v>
+      </c>
+      <c r="DJ37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:117" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>509</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>509</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>509</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F39" t="s">
+        <v>510</v>
+      </c>
+      <c r="R39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>522</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>522</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>510</v>
+      </c>
+      <c r="CX39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" t="s">
+        <v>511</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>509</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>533</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>533</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>527</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>534</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>536</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>540</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E43" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" t="s">
+        <v>512</v>
+      </c>
+      <c r="R43" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>512</v>
+      </c>
+      <c r="BY43" t="s">
+        <v>541</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>545</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E38" t="s">
-        <v>475</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>474</v>
-      </c>
-      <c r="BC38" t="s">
+      <c r="CF44" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E46" t="s">
+        <v>497</v>
+      </c>
+      <c r="F46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>535</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>535</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>547</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R48" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="BI38" t="s">
-        <v>484</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>484</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>474</v>
+      <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" t="s">
+        <v>503</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" t="s">
+        <v>505</v>
+      </c>
+      <c r="C59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" t="s">
+        <v>506</v>
+      </c>
+      <c r="C60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" t="s">
+        <v>500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E62" t="s">
+        <v>514</v>
+      </c>
+      <c r="F62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E63" t="s">
+        <v>515</v>
+      </c>
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L64" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
